--- a/pybangla/eval_data/eval_data_3.0.0.xlsx
+++ b/pybangla/eval_data/eval_data_3.0.0.xlsx
@@ -4657,7 +4657,7 @@
     <t>$15.2 k এক্সাম ফী লাগবে।</t>
   </si>
   <si>
-    <t>ফিফটিন পয়েন্ট টু ডলার এক্সাম ফী লাগবে।</t>
+    <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
   </si>
 </sst>
 </file>

--- a/pybangla/eval_data/eval_data_3.0.0.xlsx
+++ b/pybangla/eval_data/eval_data_3.0.0.xlsx
@@ -4657,7 +4657,7 @@
     <t>$15.2 k এক্সাম ফী লাগবে।</t>
   </si>
   <si>
-    <t>ফিফটিন পয়েন্ট টু থাউসেন্ড ডলার এক্সাম ফী লাগবে।</t>
+    <t>ফিফটিন পয়েন্ট টু থাউ ডলার এক্সাম ফী লাগবে।</t>
   </si>
 </sst>
 </file>
